--- a/Code/Results/Cases/Case_5_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.23341606851215</v>
+        <v>15.38225564643492</v>
       </c>
       <c r="C2">
-        <v>6.612045693998507</v>
+        <v>7.466367187508107</v>
       </c>
       <c r="D2">
-        <v>4.514604457654016</v>
+        <v>4.458777462262151</v>
       </c>
       <c r="E2">
-        <v>6.503320209862467</v>
+        <v>11.36521475653977</v>
       </c>
       <c r="F2">
-        <v>66.45754811623478</v>
+        <v>60.79824859264363</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>7.490894040622786</v>
+        <v>10.83153443283537</v>
       </c>
       <c r="K2">
-        <v>11.21217999368596</v>
+        <v>15.0308099310607</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.49144296471875</v>
+        <v>15.31761715088765</v>
       </c>
       <c r="C3">
-        <v>6.097820049468136</v>
+        <v>7.461854550307004</v>
       </c>
       <c r="D3">
-        <v>4.28738810422549</v>
+        <v>4.511138247076429</v>
       </c>
       <c r="E3">
-        <v>6.334340253313162</v>
+        <v>11.41148789700232</v>
       </c>
       <c r="F3">
-        <v>63.2902368290322</v>
+        <v>59.82695907145634</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>7.327037064199902</v>
+        <v>10.82488498585519</v>
       </c>
       <c r="K3">
-        <v>10.67445659535345</v>
+        <v>15.02419668091847</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.030253290131</v>
+        <v>15.28389578465265</v>
       </c>
       <c r="C4">
-        <v>5.769951177005079</v>
+        <v>7.463283789944406</v>
       </c>
       <c r="D4">
-        <v>4.144333887457317</v>
+        <v>4.545934970892977</v>
       </c>
       <c r="E4">
-        <v>6.238541335189289</v>
+        <v>11.44350797748967</v>
       </c>
       <c r="F4">
-        <v>61.30277412499863</v>
+        <v>59.22646136411002</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>7.229375057578206</v>
+        <v>10.82240464489274</v>
       </c>
       <c r="K4">
-        <v>10.34612075773235</v>
+        <v>15.02566999335046</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.8411055472141</v>
+        <v>15.2716666762217</v>
       </c>
       <c r="C5">
-        <v>5.633221549467728</v>
+        <v>7.464919303484549</v>
       </c>
       <c r="D5">
-        <v>4.085105856620095</v>
+        <v>4.560773955365147</v>
       </c>
       <c r="E5">
-        <v>6.201492530142457</v>
+        <v>11.45746059880429</v>
       </c>
       <c r="F5">
-        <v>60.4825989372105</v>
+        <v>58.98092973084075</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>7.19031809727178</v>
+        <v>10.82179724639128</v>
       </c>
       <c r="K5">
-        <v>10.21294014321946</v>
+        <v>15.02766123609725</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.80963166707386</v>
+        <v>15.26972770708928</v>
       </c>
       <c r="C6">
-        <v>5.610327525556577</v>
+        <v>7.465254364239289</v>
       </c>
       <c r="D6">
-        <v>4.075213684462615</v>
+        <v>4.56327757370855</v>
       </c>
       <c r="E6">
-        <v>6.195460410328059</v>
+        <v>11.459831937166</v>
       </c>
       <c r="F6">
-        <v>60.34580609022082</v>
+        <v>58.94011588263041</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>7.183877511668121</v>
+        <v>10.82172075898999</v>
       </c>
       <c r="K6">
-        <v>10.19086822489571</v>
+        <v>15.0280758389538</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.02770696546261</v>
+        <v>15.28372471993663</v>
       </c>
       <c r="C7">
-        <v>5.768119907668856</v>
+        <v>7.463301588364042</v>
       </c>
       <c r="D7">
-        <v>4.143538942672743</v>
+        <v>4.546132434777301</v>
       </c>
       <c r="E7">
-        <v>6.238033641173291</v>
+        <v>11.44369249070242</v>
       </c>
       <c r="F7">
-        <v>61.29175379379694</v>
+        <v>59.22315309243624</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>7.228845319745757</v>
+        <v>10.82239481969377</v>
       </c>
       <c r="K7">
-        <v>10.34432189866306</v>
+        <v>15.02569121839029</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.9788537358964</v>
+        <v>15.35873794015031</v>
       </c>
       <c r="C8">
-        <v>6.437211564301186</v>
+        <v>7.463938159160707</v>
       </c>
       <c r="D8">
-        <v>4.43696851044848</v>
+        <v>4.476278061671829</v>
       </c>
       <c r="E8">
-        <v>6.443399392869857</v>
+        <v>11.38041901260136</v>
       </c>
       <c r="F8">
-        <v>65.37456330676076</v>
+        <v>60.46433016239355</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>7.433783903414541</v>
+        <v>10.82890940980146</v>
       </c>
       <c r="K8">
-        <v>11.02647887785763</v>
+        <v>15.02738111146379</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.95287505938565</v>
+        <v>15.55252708302363</v>
       </c>
       <c r="C9">
-        <v>7.657073670631203</v>
+        <v>7.498571413083943</v>
       </c>
       <c r="D9">
-        <v>4.986511072809201</v>
+        <v>4.360601037299372</v>
       </c>
       <c r="E9">
-        <v>6.909669358138164</v>
+        <v>11.28510406073274</v>
       </c>
       <c r="F9">
-        <v>73.02930195181443</v>
+        <v>62.85640637024959</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>7.859221344840932</v>
+        <v>10.8543758215049</v>
       </c>
       <c r="K9">
-        <v>12.84042574053673</v>
+        <v>15.07457440308378</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.48582736503514</v>
+        <v>15.72231997927095</v>
       </c>
       <c r="C10">
-        <v>8.504024670562581</v>
+        <v>7.544339504150178</v>
       </c>
       <c r="D10">
-        <v>5.378202701999225</v>
+        <v>4.289035790225433</v>
       </c>
       <c r="E10">
-        <v>7.291849168722233</v>
+        <v>11.23278799735229</v>
       </c>
       <c r="F10">
-        <v>78.43390629746216</v>
+        <v>64.57641039704164</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>8.18678553921397</v>
+        <v>10.88078393743061</v>
       </c>
       <c r="K10">
-        <v>14.17704109964434</v>
+        <v>15.13587063765806</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.1624460081385</v>
+        <v>15.80524617340496</v>
       </c>
       <c r="C11">
-        <v>8.880554341465622</v>
+        <v>7.569532995982827</v>
       </c>
       <c r="D11">
-        <v>5.554790471464029</v>
+        <v>4.25949170523734</v>
       </c>
       <c r="E11">
-        <v>7.53854929586336</v>
+        <v>11.21286864452582</v>
       </c>
       <c r="F11">
-        <v>80.84737043137139</v>
+        <v>65.34834109168392</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>8.339344642793135</v>
+        <v>10.89445734332768</v>
       </c>
       <c r="K11">
-        <v>14.766075964434</v>
+        <v>15.16948104229567</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.41592208286561</v>
+        <v>15.83744016758567</v>
       </c>
       <c r="C12">
-        <v>9.022070760675597</v>
+        <v>7.579696122334028</v>
       </c>
       <c r="D12">
-        <v>5.621531501321515</v>
+        <v>4.248745649393559</v>
       </c>
       <c r="E12">
-        <v>7.655065357803696</v>
+        <v>11.20588613188389</v>
       </c>
       <c r="F12">
-        <v>81.75522415370185</v>
+        <v>65.6389477808508</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>8.397661449764298</v>
+        <v>10.89987247404824</v>
       </c>
       <c r="K12">
-        <v>14.9866427539806</v>
+        <v>15.18302496355924</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.36144931471564</v>
+        <v>15.83047184032013</v>
       </c>
       <c r="C13">
-        <v>8.991636752630804</v>
+        <v>7.577479719631993</v>
       </c>
       <c r="D13">
-        <v>5.607161588661438</v>
+        <v>4.251040222347366</v>
       </c>
       <c r="E13">
-        <v>7.630017896576613</v>
+        <v>11.20736497179286</v>
       </c>
       <c r="F13">
-        <v>81.55996306487195</v>
+        <v>65.57643936396339</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>8.385076893140448</v>
+        <v>10.898695699098</v>
       </c>
       <c r="K13">
-        <v>14.93924614111678</v>
+        <v>15.18007185548379</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.1833531363898</v>
+        <v>15.80787908262969</v>
       </c>
       <c r="C14">
-        <v>8.892217164595785</v>
+        <v>7.570356678564753</v>
       </c>
       <c r="D14">
-        <v>5.560283247638775</v>
+        <v>4.258598719172666</v>
       </c>
       <c r="E14">
-        <v>7.548156250788134</v>
+        <v>11.21228294099462</v>
       </c>
       <c r="F14">
-        <v>80.92217875994812</v>
+        <v>65.37228477515291</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>8.344131209248388</v>
+        <v>10.89489810220806</v>
       </c>
       <c r="K14">
-        <v>14.78427046726732</v>
+        <v>15.17057899245966</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.07391439652255</v>
+        <v>15.79414265725843</v>
       </c>
       <c r="C15">
-        <v>8.831187018737372</v>
+        <v>7.566074525461001</v>
       </c>
       <c r="D15">
-        <v>5.531555372673004</v>
+        <v>4.263286292624326</v>
       </c>
       <c r="E15">
-        <v>7.497875338033627</v>
+        <v>11.21536840989533</v>
       </c>
       <c r="F15">
-        <v>80.53074214120663</v>
+        <v>65.24700626467302</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>8.319123174879277</v>
+        <v>10.8926028235123</v>
       </c>
       <c r="K15">
-        <v>14.6890272213145</v>
+        <v>15.16487042503289</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.44121082369719</v>
+        <v>15.71701279791642</v>
       </c>
       <c r="C16">
-        <v>8.479257128745424</v>
+        <v>7.54278057770525</v>
       </c>
       <c r="D16">
-        <v>5.366638412311212</v>
+        <v>4.291027892412172</v>
       </c>
       <c r="E16">
-        <v>7.280085350397204</v>
+        <v>11.23416806987976</v>
       </c>
       <c r="F16">
-        <v>78.27530409416727</v>
+        <v>64.52573454917517</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>8.176889620791195</v>
+        <v>10.8799236381224</v>
       </c>
       <c r="K16">
-        <v>14.13818408276566</v>
+        <v>15.13378877651082</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.0479130159604</v>
+        <v>15.67113462143466</v>
       </c>
       <c r="C17">
-        <v>8.261244723520621</v>
+        <v>7.529606861266271</v>
       </c>
       <c r="D17">
-        <v>5.265125346771601</v>
+        <v>4.308823789676511</v>
       </c>
       <c r="E17">
-        <v>7.177996692357897</v>
+        <v>11.24669662688747</v>
       </c>
       <c r="F17">
-        <v>76.88034713335632</v>
+        <v>64.08042457533745</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>8.090564415135882</v>
+        <v>10.87256963262127</v>
       </c>
       <c r="K17">
-        <v>13.7955569386813</v>
+        <v>15.11618327811742</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.81973077913902</v>
+        <v>15.6452836362636</v>
       </c>
       <c r="C18">
-        <v>8.135012787912299</v>
+        <v>7.522441789788897</v>
       </c>
       <c r="D18">
-        <v>5.206580735162698</v>
+        <v>4.319342425389312</v>
       </c>
       <c r="E18">
-        <v>7.120118145251368</v>
+        <v>11.25426773070421</v>
       </c>
       <c r="F18">
-        <v>76.07372212218941</v>
+        <v>63.82331621925609</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>8.04124363288506</v>
+        <v>10.86849616835236</v>
       </c>
       <c r="K18">
-        <v>13.5966822010147</v>
+        <v>15.10659657147558</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.74212773562373</v>
+        <v>15.63662391933686</v>
       </c>
       <c r="C19">
-        <v>8.092123722322993</v>
+        <v>7.520086754987688</v>
       </c>
       <c r="D19">
-        <v>5.18672876626689</v>
+        <v>4.322952185413928</v>
       </c>
       <c r="E19">
-        <v>7.100664624390269</v>
+        <v>11.25689378317225</v>
       </c>
       <c r="F19">
-        <v>75.79986757754604</v>
+        <v>63.73610190117308</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>8.024600455569143</v>
+        <v>10.86714385974187</v>
       </c>
       <c r="K19">
-        <v>13.52902978680875</v>
+        <v>15.10344353156671</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.08998231939724</v>
+        <v>15.67596304473776</v>
       </c>
       <c r="C20">
-        <v>8.284537847615567</v>
+        <v>7.530966613262517</v>
       </c>
       <c r="D20">
-        <v>5.27594715538523</v>
+        <v>4.306900044634059</v>
       </c>
       <c r="E20">
-        <v>7.188776970464712</v>
+        <v>11.24532514375555</v>
       </c>
       <c r="F20">
-        <v>77.02928350780233</v>
+        <v>64.12793122869311</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>8.099719384016947</v>
+        <v>10.87333630563099</v>
       </c>
       <c r="K20">
-        <v>13.83221529922392</v>
+        <v>15.11800162306211</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.23573669157055</v>
+        <v>15.81449385483713</v>
       </c>
       <c r="C21">
-        <v>8.921446392566331</v>
+        <v>7.572432038595073</v>
       </c>
       <c r="D21">
-        <v>5.574055171701962</v>
+        <v>4.256366549242196</v>
       </c>
       <c r="E21">
-        <v>7.572229553775769</v>
+        <v>11.21082318189084</v>
       </c>
       <c r="F21">
-        <v>81.10967203655918</v>
+        <v>65.43229776446232</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>8.356142783292931</v>
+        <v>10.89600712027866</v>
       </c>
       <c r="K21">
-        <v>14.8298559836704</v>
+        <v>15.1733451828598</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.96869733799551</v>
+        <v>15.9096327503991</v>
       </c>
       <c r="C22">
-        <v>9.331594466413781</v>
+        <v>7.603158946629422</v>
       </c>
       <c r="D22">
-        <v>5.768193216853684</v>
+        <v>4.225918429153194</v>
       </c>
       <c r="E22">
-        <v>7.90948823758309</v>
+        <v>11.19154234931833</v>
       </c>
       <c r="F22">
-        <v>83.74137594575097</v>
+        <v>66.27474392496411</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>8.52693896625723</v>
+        <v>10.91220623311811</v>
       </c>
       <c r="K22">
-        <v>15.46750977503905</v>
+        <v>15.21426972055903</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.57886350668133</v>
+        <v>15.85844340276877</v>
       </c>
       <c r="C23">
-        <v>9.113178121516583</v>
+        <v>7.586429939292691</v>
       </c>
       <c r="D23">
-        <v>5.66460397230955</v>
+        <v>4.241930321831142</v>
       </c>
       <c r="E23">
-        <v>7.73001431871889</v>
+        <v>11.20153302806605</v>
       </c>
       <c r="F23">
-        <v>82.33980742824298</v>
+        <v>65.82609501794747</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>8.43547298527225</v>
+        <v>10.90343448904513</v>
       </c>
       <c r="K23">
-        <v>15.12840607177646</v>
+        <v>15.19199518623187</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.07096925243653</v>
+        <v>15.67377847738079</v>
       </c>
       <c r="C24">
-        <v>8.274009823933625</v>
+        <v>7.530350596022761</v>
       </c>
       <c r="D24">
-        <v>5.271055194316321</v>
+        <v>4.3077688748034</v>
       </c>
       <c r="E24">
-        <v>7.183900675888932</v>
+        <v>11.24594404440501</v>
       </c>
       <c r="F24">
-        <v>76.96196387206786</v>
+        <v>64.10645686246903</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>8.095579463479721</v>
+        <v>10.87298921157516</v>
       </c>
       <c r="K24">
-        <v>13.81564797123797</v>
+        <v>15.11717788260899</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.36863134207116</v>
+        <v>15.49520254664394</v>
       </c>
       <c r="C25">
-        <v>7.33629880554085</v>
+        <v>7.485624713897806</v>
       </c>
       <c r="D25">
-        <v>4.840266640226595</v>
+        <v>4.389569891709205</v>
       </c>
       <c r="E25">
-        <v>6.776657295037698</v>
+        <v>11.3077910515199</v>
       </c>
       <c r="F25">
-        <v>70.99725474079585</v>
+        <v>62.21502169856129</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>7.741563635952079</v>
+        <v>10.8461310941404</v>
       </c>
       <c r="K25">
-        <v>12.32991130710268</v>
+        <v>15.05711738057883</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_5_126/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.38225564643492</v>
+        <v>13.23341606851217</v>
       </c>
       <c r="C2">
-        <v>7.466367187508107</v>
+        <v>6.612045693998509</v>
       </c>
       <c r="D2">
-        <v>4.458777462262151</v>
+        <v>4.514604457654179</v>
       </c>
       <c r="E2">
-        <v>11.36521475653977</v>
+        <v>6.503320209862415</v>
       </c>
       <c r="F2">
-        <v>60.79824859264363</v>
+        <v>66.45754811623497</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.83153443283537</v>
+        <v>7.490894040622781</v>
       </c>
       <c r="K2">
-        <v>15.0308099310607</v>
+        <v>11.21217999368598</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -462,28 +462,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>15.31761715088765</v>
+        <v>12.4914429647188</v>
       </c>
       <c r="C3">
-        <v>7.461854550307004</v>
+        <v>6.097820049468259</v>
       </c>
       <c r="D3">
-        <v>4.511138247076429</v>
+        <v>4.287388104225644</v>
       </c>
       <c r="E3">
-        <v>11.41148789700232</v>
+        <v>6.334340253313081</v>
       </c>
       <c r="F3">
-        <v>59.82695907145634</v>
+        <v>63.29023682903203</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.82488498585519</v>
+        <v>7.327037064199922</v>
       </c>
       <c r="K3">
-        <v>15.02419668091847</v>
+        <v>10.67445659535346</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -503,28 +503,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.28389578465265</v>
+        <v>12.03025329013108</v>
       </c>
       <c r="C4">
-        <v>7.463283789944406</v>
+        <v>5.76995117700525</v>
       </c>
       <c r="D4">
-        <v>4.545934970892977</v>
+        <v>4.144333887457381</v>
       </c>
       <c r="E4">
-        <v>11.44350797748967</v>
+        <v>6.238541335189234</v>
       </c>
       <c r="F4">
-        <v>59.22646136411002</v>
+        <v>61.30277412499884</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.82240464489274</v>
+        <v>7.229375057578141</v>
       </c>
       <c r="K4">
-        <v>15.02566999335046</v>
+        <v>10.34612075773238</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -544,28 +544,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.2716666762217</v>
+        <v>11.84110554721406</v>
       </c>
       <c r="C5">
-        <v>7.464919303484549</v>
+        <v>5.633221549467712</v>
       </c>
       <c r="D5">
-        <v>4.560773955365147</v>
+        <v>4.085105856620105</v>
       </c>
       <c r="E5">
-        <v>11.45746059880429</v>
+        <v>6.201492530142454</v>
       </c>
       <c r="F5">
-        <v>58.98092973084075</v>
+        <v>60.48259893721067</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>10.82179724639128</v>
+        <v>7.190318097271765</v>
       </c>
       <c r="K5">
-        <v>15.02766123609725</v>
+        <v>10.21294014321942</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -585,28 +585,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.26972770708928</v>
+        <v>11.80963166707384</v>
       </c>
       <c r="C6">
-        <v>7.465254364239289</v>
+        <v>5.610327525556488</v>
       </c>
       <c r="D6">
-        <v>4.56327757370855</v>
+        <v>4.075213684462403</v>
       </c>
       <c r="E6">
-        <v>11.459831937166</v>
+        <v>6.195460410328161</v>
       </c>
       <c r="F6">
-        <v>58.94011588263041</v>
+        <v>60.34580609022073</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>10.82172075898999</v>
+        <v>7.18387751166813</v>
       </c>
       <c r="K6">
-        <v>15.0280758389538</v>
+        <v>10.19086822489573</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -626,28 +626,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.28372471993663</v>
+        <v>12.02770696546257</v>
       </c>
       <c r="C7">
-        <v>7.463301588364042</v>
+        <v>5.768119907668808</v>
       </c>
       <c r="D7">
-        <v>4.546132434777301</v>
+        <v>4.14353894267273</v>
       </c>
       <c r="E7">
-        <v>11.44369249070242</v>
+        <v>6.238033641173239</v>
       </c>
       <c r="F7">
-        <v>59.22315309243624</v>
+        <v>61.2917537937971</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>10.82239481969377</v>
+        <v>7.228845319745776</v>
       </c>
       <c r="K7">
-        <v>15.02569121839029</v>
+        <v>10.34432189866301</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -667,28 +667,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>15.35873794015031</v>
+        <v>12.97885373589639</v>
       </c>
       <c r="C8">
-        <v>7.463938159160707</v>
+        <v>6.437211564301089</v>
       </c>
       <c r="D8">
-        <v>4.476278061671829</v>
+        <v>4.43696851044852</v>
       </c>
       <c r="E8">
-        <v>11.38041901260136</v>
+        <v>6.443399392869837</v>
       </c>
       <c r="F8">
-        <v>60.46433016239355</v>
+        <v>65.37456330676054</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.82890940980146</v>
+        <v>7.433783903414555</v>
       </c>
       <c r="K8">
-        <v>15.02738111146379</v>
+        <v>11.02647887785765</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -708,28 +708,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.55252708302363</v>
+        <v>14.95287505938566</v>
       </c>
       <c r="C9">
-        <v>7.498571413083943</v>
+        <v>7.657073670631029</v>
       </c>
       <c r="D9">
-        <v>4.360601037299372</v>
+        <v>4.986511072809275</v>
       </c>
       <c r="E9">
-        <v>11.28510406073274</v>
+        <v>6.909669358138161</v>
       </c>
       <c r="F9">
-        <v>62.85640637024959</v>
+        <v>73.02930195181435</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>10.8543758215049</v>
+        <v>7.859221344840919</v>
       </c>
       <c r="K9">
-        <v>15.07457440308378</v>
+        <v>12.84042574053668</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -749,28 +749,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.72231997927095</v>
+        <v>16.48582736503509</v>
       </c>
       <c r="C10">
-        <v>7.544339504150178</v>
+        <v>8.504024670562499</v>
       </c>
       <c r="D10">
-        <v>4.289035790225433</v>
+        <v>5.378202701999188</v>
       </c>
       <c r="E10">
-        <v>11.23278799735229</v>
+        <v>7.291849168722202</v>
       </c>
       <c r="F10">
-        <v>64.57641039704164</v>
+        <v>78.43390629746197</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>10.88078393743061</v>
+        <v>8.186785539213938</v>
       </c>
       <c r="K10">
-        <v>15.13587063765806</v>
+        <v>14.17704109964429</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -790,28 +790,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.80524617340496</v>
+        <v>17.16244600813844</v>
       </c>
       <c r="C11">
-        <v>7.569532995982827</v>
+        <v>8.880554341465437</v>
       </c>
       <c r="D11">
-        <v>4.25949170523734</v>
+        <v>5.554790471464028</v>
       </c>
       <c r="E11">
-        <v>11.21286864452582</v>
+        <v>7.538549295863239</v>
       </c>
       <c r="F11">
-        <v>65.34834109168392</v>
+        <v>80.84737043137122</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>10.89445734332768</v>
+        <v>8.339344642793165</v>
       </c>
       <c r="K11">
-        <v>15.16948104229567</v>
+        <v>14.76607596443393</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -831,28 +831,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.83744016758567</v>
+        <v>17.41592208286556</v>
       </c>
       <c r="C12">
-        <v>7.579696122334028</v>
+        <v>9.022070760675733</v>
       </c>
       <c r="D12">
-        <v>4.248745649393559</v>
+        <v>5.621531501321602</v>
       </c>
       <c r="E12">
-        <v>11.20588613188389</v>
+        <v>7.655065357803694</v>
       </c>
       <c r="F12">
-        <v>65.6389477808508</v>
+        <v>81.75522415370241</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>10.89987247404824</v>
+        <v>8.397661449764286</v>
       </c>
       <c r="K12">
-        <v>15.18302496355924</v>
+        <v>14.98664275398061</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -872,28 +872,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.83047184032013</v>
+        <v>17.36144931471567</v>
       </c>
       <c r="C13">
-        <v>7.577479719631993</v>
+        <v>8.991636752630741</v>
       </c>
       <c r="D13">
-        <v>4.251040222347366</v>
+        <v>5.60716158866151</v>
       </c>
       <c r="E13">
-        <v>11.20736497179286</v>
+        <v>7.630017896576661</v>
       </c>
       <c r="F13">
-        <v>65.57643936396339</v>
+        <v>81.55996306487224</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>10.898695699098</v>
+        <v>8.385076893140459</v>
       </c>
       <c r="K13">
-        <v>15.18007185548379</v>
+        <v>14.93924614111672</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -913,28 +913,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.80787908262969</v>
+        <v>17.18335313638977</v>
       </c>
       <c r="C14">
-        <v>7.570356678564753</v>
+        <v>8.89221716459573</v>
       </c>
       <c r="D14">
-        <v>4.258598719172666</v>
+        <v>5.560283247638624</v>
       </c>
       <c r="E14">
-        <v>11.21228294099462</v>
+        <v>7.548156250788097</v>
       </c>
       <c r="F14">
-        <v>65.37228477515291</v>
+        <v>80.92217875994817</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>10.89489810220806</v>
+        <v>8.344131209248388</v>
       </c>
       <c r="K14">
-        <v>15.17057899245966</v>
+        <v>14.78427046726729</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -954,28 +954,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.79414265725843</v>
+        <v>17.07391439652262</v>
       </c>
       <c r="C15">
-        <v>7.566074525461001</v>
+        <v>8.831187018737253</v>
       </c>
       <c r="D15">
-        <v>4.263286292624326</v>
+        <v>5.531555372672918</v>
       </c>
       <c r="E15">
-        <v>11.21536840989533</v>
+        <v>7.497875338033526</v>
       </c>
       <c r="F15">
-        <v>65.24700626467302</v>
+        <v>80.53074214120736</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>10.8926028235123</v>
+        <v>8.319123174879266</v>
       </c>
       <c r="K15">
-        <v>15.16487042503289</v>
+        <v>14.68902722131457</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -995,28 +995,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.71701279791642</v>
+        <v>16.44121082369722</v>
       </c>
       <c r="C16">
-        <v>7.54278057770525</v>
+        <v>8.479257128745195</v>
       </c>
       <c r="D16">
-        <v>4.291027892412172</v>
+        <v>5.366638412311185</v>
       </c>
       <c r="E16">
-        <v>11.23416806987976</v>
+        <v>7.280085350397222</v>
       </c>
       <c r="F16">
-        <v>64.52573454917517</v>
+        <v>78.27530409416723</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>10.8799236381224</v>
+        <v>8.176889620791181</v>
       </c>
       <c r="K16">
-        <v>15.13378877651082</v>
+        <v>14.1381840827656</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1036,28 +1036,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.67113462143466</v>
+        <v>16.04791301596039</v>
       </c>
       <c r="C17">
-        <v>7.529606861266271</v>
+        <v>8.261244723520777</v>
       </c>
       <c r="D17">
-        <v>4.308823789676511</v>
+        <v>5.265125346771694</v>
       </c>
       <c r="E17">
-        <v>11.24669662688747</v>
+        <v>7.177996692357895</v>
       </c>
       <c r="F17">
-        <v>64.08042457533745</v>
+        <v>76.88034713335622</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.87256963262127</v>
+        <v>8.090564415135891</v>
       </c>
       <c r="K17">
-        <v>15.11618327811742</v>
+        <v>13.79555693868131</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1077,28 +1077,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.6452836362636</v>
+        <v>15.81973077913905</v>
       </c>
       <c r="C18">
-        <v>7.522441789788897</v>
+        <v>8.135012787912588</v>
       </c>
       <c r="D18">
-        <v>4.319342425389312</v>
+        <v>5.206580735162733</v>
       </c>
       <c r="E18">
-        <v>11.25426773070421</v>
+        <v>7.120118145251383</v>
       </c>
       <c r="F18">
-        <v>63.82331621925609</v>
+        <v>76.0737221221893</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>10.86849616835236</v>
+        <v>8.041243632885084</v>
       </c>
       <c r="K18">
-        <v>15.10659657147558</v>
+        <v>13.59668220101481</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1118,28 +1118,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.63662391933686</v>
+        <v>15.74212773562363</v>
       </c>
       <c r="C19">
-        <v>7.520086754987688</v>
+        <v>8.092123722323301</v>
       </c>
       <c r="D19">
-        <v>4.322952185413928</v>
+        <v>5.186728766266961</v>
       </c>
       <c r="E19">
-        <v>11.25689378317225</v>
+        <v>7.100664624390261</v>
       </c>
       <c r="F19">
-        <v>63.73610190117308</v>
+        <v>75.79986757754598</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>10.86714385974187</v>
+        <v>8.024600455569137</v>
       </c>
       <c r="K19">
-        <v>15.10344353156671</v>
+        <v>13.52902978680872</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1159,28 +1159,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.67596304473776</v>
+        <v>16.08998231939733</v>
       </c>
       <c r="C20">
-        <v>7.530966613262517</v>
+        <v>8.284537847615619</v>
       </c>
       <c r="D20">
-        <v>4.306900044634059</v>
+        <v>5.275947155385218</v>
       </c>
       <c r="E20">
-        <v>11.24532514375555</v>
+        <v>7.188776970464737</v>
       </c>
       <c r="F20">
-        <v>64.12793122869311</v>
+        <v>77.02928350780246</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>10.87333630563099</v>
+        <v>8.099719384016943</v>
       </c>
       <c r="K20">
-        <v>15.11800162306211</v>
+        <v>13.83221529922396</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1200,28 +1200,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.81449385483713</v>
+        <v>17.2357366915706</v>
       </c>
       <c r="C21">
-        <v>7.572432038595073</v>
+        <v>8.921446392566565</v>
       </c>
       <c r="D21">
-        <v>4.256366549242196</v>
+        <v>5.574055171701973</v>
       </c>
       <c r="E21">
-        <v>11.21082318189084</v>
+        <v>7.572229553775725</v>
       </c>
       <c r="F21">
-        <v>65.43229776446232</v>
+        <v>81.1096720365599</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>10.89600712027866</v>
+        <v>8.356142783292885</v>
       </c>
       <c r="K21">
-        <v>15.1733451828598</v>
+        <v>14.8298559836705</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1241,28 +1241,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.9096327503991</v>
+        <v>17.96869733799547</v>
       </c>
       <c r="C22">
-        <v>7.603158946629422</v>
+        <v>9.331594466413694</v>
       </c>
       <c r="D22">
-        <v>4.225918429153194</v>
+        <v>5.768193216853552</v>
       </c>
       <c r="E22">
-        <v>11.19154234931833</v>
+        <v>7.909488237582926</v>
       </c>
       <c r="F22">
-        <v>66.27474392496411</v>
+        <v>83.74137594575113</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>10.91220623311811</v>
+        <v>8.526938966257283</v>
       </c>
       <c r="K22">
-        <v>15.21426972055903</v>
+        <v>15.46750977503903</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1282,28 +1282,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.85844340276877</v>
+        <v>17.57886350668137</v>
       </c>
       <c r="C23">
-        <v>7.586429939292691</v>
+        <v>9.11317812151678</v>
       </c>
       <c r="D23">
-        <v>4.241930321831142</v>
+        <v>5.664603972309585</v>
       </c>
       <c r="E23">
-        <v>11.20153302806605</v>
+        <v>7.730014318718942</v>
       </c>
       <c r="F23">
-        <v>65.82609501794747</v>
+        <v>82.33980742824313</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>10.90343448904513</v>
+        <v>8.435472985272293</v>
       </c>
       <c r="K23">
-        <v>15.19199518623187</v>
+        <v>15.12840607177657</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1323,28 +1323,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.67377847738079</v>
+        <v>16.07096925243636</v>
       </c>
       <c r="C24">
-        <v>7.530350596022761</v>
+        <v>8.274009823933717</v>
       </c>
       <c r="D24">
-        <v>4.3077688748034</v>
+        <v>5.271055194316328</v>
       </c>
       <c r="E24">
-        <v>11.24594404440501</v>
+        <v>7.183900675889032</v>
       </c>
       <c r="F24">
-        <v>64.10645686246903</v>
+        <v>76.96196387206692</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>10.87298921157516</v>
+        <v>8.095579463479776</v>
       </c>
       <c r="K24">
-        <v>15.11717788260899</v>
+        <v>13.81564797123789</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1364,28 +1364,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>15.49520254664394</v>
+        <v>14.36863134207112</v>
       </c>
       <c r="C25">
-        <v>7.485624713897806</v>
+        <v>7.336298805541053</v>
       </c>
       <c r="D25">
-        <v>4.389569891709205</v>
+        <v>4.840266640226674</v>
       </c>
       <c r="E25">
-        <v>11.3077910515199</v>
+        <v>6.776657295037716</v>
       </c>
       <c r="F25">
-        <v>62.21502169856129</v>
+        <v>70.99725474079609</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>10.8461310941404</v>
+        <v>7.741563635952107</v>
       </c>
       <c r="K25">
-        <v>15.05711738057883</v>
+        <v>12.32991130710271</v>
       </c>
       <c r="L25">
         <v>0</v>
